--- a/fuentes/contenidos/grado10/guion17/EscaletaCN_10_17.xlsx
+++ b/fuentes/contenidos/grado10/guion17/EscaletaCN_10_17.xlsx
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$P$1:$P$260</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="220">
   <si>
     <t>Asignatura</t>
   </si>
@@ -623,9 +623,6 @@
     <t>Interactivo que presenta la segunda ley de Newton a partir de relaciones entre la masa y la velocidad</t>
   </si>
   <si>
-    <t>Recurso F7-01</t>
-  </si>
-  <si>
     <t>Motor que incluye preguntas de respuesta abierta del tema Las leyes de las fuerzas</t>
   </si>
   <si>
@@ -684,6 +681,12 @@
   </si>
   <si>
     <t>Recurso M4A-01</t>
+  </si>
+  <si>
+    <t>RF_01_01_CO</t>
+  </si>
+  <si>
+    <t>Recurso F7B-01</t>
   </si>
 </sst>
 </file>
@@ -1105,79 +1108,10 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1254,6 +1188,75 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="201">
@@ -1774,2409 +1777,2233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U260"/>
+  <dimension ref="A1:U97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L27" sqref="L27"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="48" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" style="48" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53" style="48" customWidth="1"/>
-    <col min="6" max="6" width="33.85546875" style="57" customWidth="1"/>
-    <col min="7" max="7" width="80.28515625" style="48" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="57" customWidth="1"/>
-    <col min="9" max="9" width="11" style="57" customWidth="1"/>
-    <col min="10" max="10" width="105.140625" style="48" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="48" customWidth="1"/>
-    <col min="12" max="12" width="26.28515625" style="48" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.28515625" style="48" customWidth="1"/>
-    <col min="15" max="15" width="6.28515625" style="57" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" style="57" customWidth="1"/>
-    <col min="17" max="17" width="20.28515625" style="57" customWidth="1"/>
-    <col min="18" max="18" width="23" style="48" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="48" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="49.28515625" style="48" customWidth="1"/>
-    <col min="21" max="21" width="21.7109375" style="48" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="48"/>
+    <col min="1" max="1" width="16.7109375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53" style="25" customWidth="1"/>
+    <col min="6" max="6" width="33.85546875" style="34" customWidth="1"/>
+    <col min="7" max="7" width="80.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="11" style="34" customWidth="1"/>
+    <col min="10" max="10" width="105.140625" style="25" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="25" customWidth="1"/>
+    <col min="12" max="12" width="26.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.28515625" style="25" customWidth="1"/>
+    <col min="15" max="15" width="6.28515625" style="34" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" style="34" customWidth="1"/>
+    <col min="17" max="17" width="20.28515625" style="34" customWidth="1"/>
+    <col min="18" max="18" width="23" style="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="49.28515625" style="25" customWidth="1"/>
+    <col min="21" max="21" width="21.7109375" style="25" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="20" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:21" s="8" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="16" t="s">
+      <c r="N1" s="49"/>
+      <c r="O1" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="U1" s="52" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="28" t="s">
+    <row r="2" spans="1:21" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="30"/>
-    </row>
-    <row r="3" spans="1:21" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="53"/>
+    </row>
+    <row r="3" spans="1:21" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="F3" s="37"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="14">
         <v>1</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="15" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="L3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="41" t="s">
+      <c r="M3" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="43" t="s">
+      <c r="N3" s="18"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="44">
-        <v>10</v>
-      </c>
-      <c r="R3" s="45" t="s">
+      <c r="Q3" s="21">
+        <v>6</v>
+      </c>
+      <c r="R3" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="S3" s="44" t="s">
+      <c r="S3" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="T3" s="46" t="s">
+      <c r="T3" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="U3" s="44" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="U3" s="21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C4" s="35" t="s">
+      <c r="B4" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="F4" s="43"/>
+      <c r="F4" s="20"/>
       <c r="G4" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="H4" s="47">
+      <c r="H4" s="24">
         <v>2</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="15" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="40" t="s">
+      <c r="L4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41" t="s">
+      <c r="M4" s="18"/>
+      <c r="N4" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43" t="s">
+      <c r="O4" s="20"/>
+      <c r="P4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="44">
+      <c r="Q4" s="21">
         <v>6</v>
       </c>
-      <c r="R4" s="45" t="s">
+      <c r="R4" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="S4" s="44" t="s">
+      <c r="S4" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="T4" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="U4" s="44" t="s">
+      <c r="T4" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="U4" s="21" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+    <row r="5" spans="1:21" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C5" s="35" t="s">
+      <c r="B5" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="F5" s="43"/>
+      <c r="F5" s="20"/>
       <c r="G5" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="14">
         <v>3</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="15" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="40" t="s">
+      <c r="L5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="41" t="s">
+      <c r="M5" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="41"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43" t="s">
+      <c r="N5" s="18"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="44">
-        <v>10</v>
-      </c>
-      <c r="R5" s="45" t="s">
+      <c r="Q5" s="21">
+        <v>6</v>
+      </c>
+      <c r="R5" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="S5" s="44" t="s">
+      <c r="S5" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="T5" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="U5" s="44" t="s">
-        <v>130</v>
+      <c r="T5" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="U5" s="21" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C6" s="35" t="s">
+      <c r="B6" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="F6" s="43"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="H6" s="47">
+      <c r="H6" s="24">
         <v>4</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="15" t="s">
         <v>20</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="K6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="40" t="s">
+      <c r="L6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41" t="s">
+      <c r="M6" s="18"/>
+      <c r="N6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43" t="s">
+      <c r="O6" s="20"/>
+      <c r="P6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="44" t="s">
+      <c r="Q6" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="R6" s="45" t="s">
+      <c r="R6" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="S6" s="44" t="s">
+      <c r="S6" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="T6" s="46" t="s">
+      <c r="T6" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="U6" s="44" t="s">
+      <c r="U6" s="21" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C7" s="35" t="s">
+      <c r="B7" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F7" s="43"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="14">
         <v>5</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="15" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K7" s="39" t="s">
+      <c r="K7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="40" t="s">
+      <c r="L7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="41" t="s">
+      <c r="M7" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="N7" s="41"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43" t="s">
+      <c r="N7" s="18"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="44" t="s">
+      <c r="Q7" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="R7" s="45" t="s">
+      <c r="R7" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="S7" s="44" t="s">
+      <c r="S7" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="T7" s="46" t="s">
+      <c r="T7" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="U7" s="44" t="s">
+      <c r="U7" s="21" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C8" s="35" t="s">
+      <c r="B8" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F8" s="43"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="24">
         <v>6</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="I8" s="15" t="s">
         <v>20</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="K8" s="39" t="s">
+      <c r="K8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="40" t="s">
+      <c r="L8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41" t="s">
+      <c r="M8" s="18"/>
+      <c r="N8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="43" t="s">
+      <c r="O8" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="P8" s="43" t="s">
+      <c r="P8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="44" t="s">
+      <c r="Q8" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="R8" s="45" t="s">
+      <c r="R8" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="S8" s="44" t="s">
+      <c r="S8" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="T8" s="46" t="s">
+      <c r="T8" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="U8" s="44" t="s">
+      <c r="U8" s="21" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C9" s="35" t="s">
+      <c r="B9" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F9" s="43"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="14">
         <v>7</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="I9" s="15" t="s">
         <v>20</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="K9" s="39" t="s">
+      <c r="K9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="40" t="s">
+      <c r="L9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41" t="s">
+      <c r="M9" s="18"/>
+      <c r="N9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43" t="s">
+      <c r="O9" s="20"/>
+      <c r="P9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="44" t="s">
+      <c r="Q9" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="R9" s="45" t="s">
+      <c r="R9" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="S9" s="44" t="s">
+      <c r="S9" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="T9" s="46" t="s">
+      <c r="T9" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="U9" s="44" t="s">
+      <c r="U9" s="21" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C10" s="35" t="s">
+      <c r="B10" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="43"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H10" s="47">
+        <v>212</v>
+      </c>
+      <c r="H10" s="24">
         <v>8</v>
       </c>
-      <c r="I10" s="38" t="s">
+      <c r="I10" s="15" t="s">
         <v>20</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="K10" s="39" t="s">
+      <c r="K10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="40" t="s">
+      <c r="L10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41" t="s">
+      <c r="M10" s="18"/>
+      <c r="N10" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43" t="s">
+      <c r="O10" s="20"/>
+      <c r="P10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="44" t="s">
+      <c r="Q10" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="R10" s="45" t="s">
+      <c r="R10" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="S10" s="44" t="s">
+      <c r="S10" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="T10" s="46" t="s">
+      <c r="T10" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="U10" s="44" t="s">
+      <c r="U10" s="21" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C11" s="35" t="s">
+      <c r="B11" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F11" s="43"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="14">
         <v>9</v>
       </c>
-      <c r="I11" s="38" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="K11" s="39" t="s">
+      <c r="K11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="40" t="s">
+      <c r="L11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41" t="s">
+      <c r="M11" s="18"/>
+      <c r="N11" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43" t="s">
+      <c r="O11" s="20"/>
+      <c r="P11" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="44" t="s">
+      <c r="Q11" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="R11" s="45" t="s">
+      <c r="R11" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="S11" s="44" t="s">
+      <c r="S11" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="T11" s="46" t="s">
+      <c r="T11" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="U11" s="44" t="s">
+      <c r="U11" s="21" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C12" s="35" t="s">
+      <c r="B12" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F12" s="43"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H12" s="24">
+        <v>10</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="H12" s="47">
-        <v>10</v>
-      </c>
-      <c r="I12" s="38" t="s">
+      <c r="K12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="K12" s="39" t="s">
+      <c r="L12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="44">
-        <v>10</v>
-      </c>
-      <c r="R12" s="45" t="s">
+      <c r="Q12" s="21">
+        <v>6</v>
+      </c>
+      <c r="R12" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="S12" s="44" t="s">
+      <c r="S12" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="T12" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="U12" s="44" t="s">
+      <c r="T12" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="U12" s="21" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C13" s="35" t="s">
+      <c r="B13" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="43"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="20"/>
       <c r="G13" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="14">
         <v>11</v>
       </c>
-      <c r="I13" s="38" t="s">
+      <c r="I13" s="15" t="s">
         <v>19</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="K13" s="39" t="s">
+      <c r="K13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="40" t="s">
+      <c r="L13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="41" t="s">
+      <c r="M13" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="N13" s="41"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43" t="s">
+      <c r="N13" s="18"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="44" t="s">
+      <c r="Q13" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="R13" s="45" t="s">
+      <c r="R13" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="S13" s="44" t="s">
+      <c r="S13" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="T13" s="46" t="s">
+      <c r="T13" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="U13" s="44" t="s">
+      <c r="U13" s="21" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C14" s="35" t="s">
+      <c r="B14" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="43"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H14" s="24">
+        <v>12</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="H14" s="47">
-        <v>12</v>
-      </c>
-      <c r="I14" s="38" t="s">
+      <c r="K14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="K14" s="39" t="s">
+      <c r="L14" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="40" t="s">
+      <c r="Q14" s="21">
+        <v>6</v>
+      </c>
+      <c r="R14" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="S14" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="T14" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="U14" s="21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H15" s="14">
+        <v>13</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="44">
+      <c r="M15" s="18"/>
+      <c r="N15" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="21">
         <v>6</v>
       </c>
-      <c r="R14" s="45" t="s">
+      <c r="R15" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="S14" s="44" t="s">
+      <c r="S15" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="T14" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="U14" s="44" t="s">
+      <c r="T15" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="U15" s="21" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C15" s="35" t="s">
+      <c r="B16" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D16" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="H15" s="37">
-        <v>13</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="K15" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="44">
-        <v>10</v>
-      </c>
-      <c r="R15" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="S15" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="T15" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="U15" s="44" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="43"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="H16" s="47">
+      <c r="H16" s="24">
         <v>14</v>
       </c>
-      <c r="I16" s="38" t="s">
+      <c r="I16" s="15" t="s">
         <v>20</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="K16" s="39" t="s">
+      <c r="K16" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="40" t="s">
+      <c r="L16" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41" t="s">
+      <c r="M16" s="18"/>
+      <c r="N16" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="O16" s="43" t="s">
+      <c r="O16" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="P16" s="43" t="s">
+      <c r="P16" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="44" t="s">
+      <c r="Q16" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="R16" s="45" t="s">
+      <c r="R16" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="S16" s="44" t="s">
+      <c r="S16" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="T16" s="46" t="s">
+      <c r="T16" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="U16" s="44" t="s">
+      <c r="U16" s="21" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C17" s="35" t="s">
+      <c r="B17" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="43"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="14">
         <v>15</v>
       </c>
-      <c r="I17" s="38" t="s">
+      <c r="I17" s="15" t="s">
         <v>19</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="K17" s="39" t="s">
+      <c r="K17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="40" t="s">
+      <c r="L17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M17" s="41" t="s">
+      <c r="M17" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="N17" s="41"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43" t="s">
+      <c r="N17" s="18"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="44" t="s">
+      <c r="Q17" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="R17" s="45" t="s">
+      <c r="R17" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="S17" s="44" t="s">
+      <c r="S17" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="T17" s="46" t="s">
+      <c r="T17" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="U17" s="44" t="s">
+      <c r="U17" s="21" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C18" s="35" t="s">
+      <c r="B18" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="F18" s="43"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="H18" s="47">
+      <c r="H18" s="24">
         <v>16</v>
       </c>
-      <c r="I18" s="38" t="s">
+      <c r="I18" s="15" t="s">
         <v>20</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="K18" s="39" t="s">
+      <c r="K18" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="40" t="s">
+      <c r="L18" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41" t="s">
+      <c r="M18" s="18"/>
+      <c r="N18" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43" t="s">
+      <c r="O18" s="20"/>
+      <c r="P18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="44" t="s">
+      <c r="Q18" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="R18" s="45" t="s">
+      <c r="R18" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="S18" s="44" t="s">
+      <c r="S18" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="T18" s="46" t="s">
+      <c r="T18" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="U18" s="44" t="s">
+      <c r="U18" s="21" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C19" s="35" t="s">
+      <c r="B19" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="27" t="s">
         <v>160</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="14">
         <v>17</v>
       </c>
-      <c r="I19" s="38" t="s">
+      <c r="I19" s="15" t="s">
         <v>19</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="K19" s="39" t="s">
+      <c r="K19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="40" t="s">
+      <c r="L19" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="51" t="s">
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="P19" s="43" t="s">
+      <c r="P19" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="44" t="s">
+      <c r="Q19" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="R19" s="45" t="s">
+      <c r="R19" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="44" t="s">
+      <c r="S19" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="T19" s="46" t="s">
+      <c r="T19" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="U19" s="44" t="s">
+      <c r="U19" s="21" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C20" s="35" t="s">
+      <c r="B20" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="E20" s="49"/>
-      <c r="F20" s="43"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H20" s="24">
+        <v>18</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="R20" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="S20" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="T20" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="U20" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="H20" s="47">
-        <v>18</v>
-      </c>
-      <c r="I20" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="K20" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q20" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="R20" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="S20" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="T20" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="U20" s="44" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F21" s="43"/>
+      <c r="F21" s="20"/>
       <c r="G21" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="14">
         <v>19</v>
       </c>
-      <c r="I21" s="38" t="s">
+      <c r="I21" s="15" t="s">
         <v>20</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="K21" s="39" t="s">
+      <c r="K21" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="40" t="s">
+      <c r="L21" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41" t="s">
+      <c r="M21" s="18"/>
+      <c r="N21" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43" t="s">
+      <c r="O21" s="20"/>
+      <c r="P21" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="44" t="s">
+      <c r="Q21" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="R21" s="45" t="s">
+      <c r="R21" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="S21" s="44" t="s">
+      <c r="S21" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="T21" s="46" t="s">
+      <c r="T21" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="U21" s="44" t="s">
+      <c r="U21" s="21" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="35" t="s">
+      <c r="B22" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F22" s="43"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="H22" s="47">
+      <c r="H22" s="24">
         <v>20</v>
       </c>
-      <c r="I22" s="38" t="s">
+      <c r="I22" s="15" t="s">
         <v>20</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="K22" s="39" t="s">
+      <c r="K22" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="40" t="s">
+      <c r="L22" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41" t="s">
+      <c r="M22" s="18"/>
+      <c r="N22" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43" t="s">
+      <c r="O22" s="20"/>
+      <c r="P22" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="44" t="s">
+      <c r="Q22" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="R22" s="45" t="s">
+      <c r="R22" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="S22" s="44" t="s">
+      <c r="S22" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="T22" s="46" t="s">
+      <c r="T22" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="U22" s="44" t="s">
+      <c r="U22" s="21" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C23" s="35" t="s">
+      <c r="B23" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="43"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="20"/>
       <c r="G23" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H23" s="14">
         <v>21</v>
       </c>
-      <c r="I23" s="38" t="s">
+      <c r="I23" s="15" t="s">
         <v>20</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="K23" s="39" t="s">
+      <c r="K23" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="40" t="s">
+      <c r="L23" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41" t="s">
+      <c r="M23" s="18"/>
+      <c r="N23" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43" t="s">
+      <c r="O23" s="20"/>
+      <c r="P23" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="44" t="s">
+      <c r="Q23" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="R23" s="45" t="s">
+      <c r="R23" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="S23" s="44" t="s">
+      <c r="S23" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="T23" s="46" t="s">
+      <c r="T23" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="U23" s="44" t="s">
+      <c r="U23" s="21" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C24" s="35" t="s">
+      <c r="B24" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="43"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="20"/>
       <c r="G24" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="H24" s="47">
+      <c r="H24" s="24">
         <v>22</v>
       </c>
-      <c r="I24" s="38" t="s">
+      <c r="I24" s="15" t="s">
         <v>20</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="K24" s="39" t="s">
+      <c r="K24" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L24" s="40" t="s">
+      <c r="L24" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41" t="s">
+      <c r="M24" s="18"/>
+      <c r="N24" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43" t="s">
+      <c r="O24" s="20"/>
+      <c r="P24" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="Q24" s="44" t="s">
+      <c r="Q24" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="R24" s="45" t="s">
+      <c r="R24" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="S24" s="44" t="s">
+      <c r="S24" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="T24" s="46" t="s">
+      <c r="T24" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="U24" s="44" t="s">
+      <c r="U24" s="21" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C25" s="35" t="s">
+      <c r="B25" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="43"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="20"/>
       <c r="G25" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H25" s="14">
+        <v>23</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="H25" s="37">
-        <v>23</v>
-      </c>
-      <c r="I25" s="38" t="s">
+      <c r="K25" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="L25" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="21">
+        <v>6</v>
+      </c>
+      <c r="R25" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="S25" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="T25" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="K25" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q25" s="44">
-        <v>10</v>
-      </c>
-      <c r="R25" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="S25" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="T25" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="U25" s="44" t="s">
+      <c r="U25" s="21" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C26" s="35" t="s">
+      <c r="B26" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="E26" s="49"/>
-      <c r="F26" s="43"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="20"/>
       <c r="G26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="47">
+      <c r="H26" s="24">
         <v>24</v>
       </c>
-      <c r="I26" s="38" t="s">
+      <c r="I26" s="15" t="s">
         <v>20</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="K26" s="39" t="s">
+      <c r="K26" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="40" t="s">
+      <c r="L26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="51" t="s">
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="44"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="21"/>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C27" s="35" t="s">
+      <c r="B27" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="E27" s="49"/>
-      <c r="F27" s="43"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="20"/>
       <c r="G27" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="H27" s="37">
+      <c r="H27" s="14">
         <v>25</v>
       </c>
-      <c r="I27" s="38" t="s">
+      <c r="I27" s="15" t="s">
         <v>20</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="K27" s="39" t="s">
+      <c r="K27" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="40" t="s">
+      <c r="L27" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41" t="s">
+      <c r="M27" s="18"/>
+      <c r="N27" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O27" s="43" t="s">
+      <c r="O27" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="P27" s="43" t="s">
+      <c r="P27" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="21">
+        <v>6</v>
+      </c>
+      <c r="R27" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="S27" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="T27" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="U27" s="21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="H28" s="24">
+        <v>26</v>
+      </c>
+      <c r="I28" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="Q27" s="44">
+      <c r="J28" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="21">
         <v>6</v>
       </c>
-      <c r="R27" s="45" t="s">
+      <c r="R28" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="S27" s="44" t="s">
+      <c r="S28" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="T27" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="U27" s="44" t="s">
+      <c r="T28" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="U28" s="21" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="E28" s="49"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="H28" s="47">
-        <v>26</v>
-      </c>
-      <c r="I28" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="K28" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q28" s="44">
-        <v>10</v>
-      </c>
-      <c r="R28" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="S28" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="T28" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="U28" s="44" t="s">
-        <v>130</v>
-      </c>
-    </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="52"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="46"/>
-      <c r="U29" s="44"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="21"/>
     </row>
     <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="44"/>
-      <c r="T30" s="46"/>
-      <c r="U30" s="44"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="21"/>
     </row>
     <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="52"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="46"/>
-      <c r="U31" s="44"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="21"/>
     </row>
     <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="52"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="44"/>
-      <c r="T32" s="46"/>
-      <c r="U32" s="44"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="21"/>
     </row>
     <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="52"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="44"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="21"/>
     </row>
     <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="52"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="45"/>
-      <c r="S34" s="44"/>
-      <c r="T34" s="46"/>
-      <c r="U34" s="44"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="21"/>
     </row>
     <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="52"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="44"/>
-      <c r="R35" s="45"/>
-      <c r="S35" s="44"/>
-      <c r="T35" s="46"/>
-      <c r="U35" s="44"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="21"/>
     </row>
     <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="52"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="44"/>
-      <c r="R36" s="45"/>
-      <c r="S36" s="44"/>
-      <c r="T36" s="46"/>
-      <c r="U36" s="44"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="21"/>
     </row>
     <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="52"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="44"/>
-      <c r="R37" s="45"/>
-      <c r="S37" s="44"/>
-      <c r="T37" s="46"/>
-      <c r="U37" s="44"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="21"/>
     </row>
     <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="52"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="44"/>
-      <c r="R38" s="45"/>
-      <c r="S38" s="44"/>
-      <c r="T38" s="46"/>
-      <c r="U38" s="44"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="23"/>
+      <c r="U38" s="21"/>
     </row>
     <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="52"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="44"/>
-      <c r="R39" s="45"/>
-      <c r="S39" s="44"/>
-      <c r="T39" s="46"/>
-      <c r="U39" s="44"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="21"/>
     </row>
     <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="52"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="43"/>
-      <c r="Q40" s="44"/>
-      <c r="R40" s="45"/>
-      <c r="S40" s="44"/>
-      <c r="T40" s="46"/>
-      <c r="U40" s="44"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="23"/>
+      <c r="U40" s="21"/>
     </row>
     <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="52"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
-      <c r="O41" s="43"/>
-      <c r="P41" s="43"/>
-      <c r="Q41" s="44"/>
-      <c r="R41" s="45"/>
-      <c r="S41" s="44"/>
-      <c r="T41" s="46"/>
-      <c r="U41" s="44"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="23"/>
+      <c r="U41" s="21"/>
     </row>
     <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="43"/>
-      <c r="P42" s="43"/>
-      <c r="Q42" s="44"/>
-      <c r="R42" s="45"/>
-      <c r="S42" s="44"/>
-      <c r="T42" s="46"/>
-      <c r="U42" s="44"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="23"/>
+      <c r="U42" s="21"/>
     </row>
     <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="52"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="43"/>
-      <c r="P43" s="43"/>
-      <c r="Q43" s="44"/>
-      <c r="R43" s="45"/>
-      <c r="S43" s="44"/>
-      <c r="T43" s="46"/>
-      <c r="U43" s="44"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="21"/>
     </row>
     <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="52"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="41"/>
-      <c r="N44" s="41"/>
-      <c r="O44" s="43"/>
-      <c r="P44" s="43"/>
-      <c r="Q44" s="44"/>
-      <c r="R44" s="45"/>
-      <c r="S44" s="44"/>
-      <c r="T44" s="46"/>
-      <c r="U44" s="44"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="22"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="23"/>
+      <c r="U44" s="21"/>
     </row>
     <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="52"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="41"/>
-      <c r="N45" s="41"/>
-      <c r="O45" s="43"/>
-      <c r="P45" s="43"/>
-      <c r="Q45" s="44"/>
-      <c r="R45" s="45"/>
-      <c r="S45" s="44"/>
-      <c r="T45" s="46"/>
-      <c r="U45" s="44"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="22"/>
+      <c r="S45" s="21"/>
+      <c r="T45" s="23"/>
+      <c r="U45" s="21"/>
     </row>
     <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="56"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="41"/>
-      <c r="N46" s="41"/>
-      <c r="O46" s="43"/>
-      <c r="P46" s="43"/>
-      <c r="Q46" s="44"/>
-      <c r="R46" s="45"/>
-      <c r="S46" s="44"/>
-      <c r="T46" s="46"/>
-      <c r="U46" s="44"/>
-    </row>
-    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="48" t="s">
+      <c r="A46" s="29"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="22"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="23"/>
+      <c r="U46" s="21"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="48" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="25" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="48" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="48" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="25" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="48" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="25" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="48" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="25" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="48" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="25" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="48" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="25" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="48" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="25" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="48" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="25" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="48" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="25" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="72" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="48" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="25" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="73" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="48" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="74" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="48" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="25" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="75" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="48" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="25" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="76" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="48" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="48" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="78" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="48" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="48" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="25" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="48" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="25" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="48" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="48" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="48" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="48" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="48" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="48" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="25" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="48" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="25" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="48" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="25" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="48" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="25" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="48" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="25" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="48" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="25" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="48" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="48" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="25" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="48" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="25" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="48" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="25" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="48" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="25" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="48" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="25" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="114" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="115" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="116" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="117" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="119" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="128" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
     <mergeCell ref="P1:P2"/>
@@ -4209,7 +4036,7 @@
           <x14:formula1>
             <xm:f>DATOS!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K25 P3:P25 I3:I46 P27:P46 K27:K46</xm:sqref>
+          <xm:sqref>K3:K25 P3:P25 I3:I46 K27:K46 P28:P46</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
